--- a/Racecard_20250205_11.xlsx
+++ b/Racecard_20250205_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>場次</t>
+  </si>
+  <si>
+    <t>泥草</t>
+  </si>
+  <si>
+    <t>賽道</t>
+  </si>
+  <si>
+    <t>班次</t>
+  </si>
+  <si>
+    <t>路程</t>
   </si>
   <si>
     <t>馬匹編號</t>
@@ -458,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,6 +563,18 @@
       </c>
       <c r="AC1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
